--- a/dados/dados.xlsx
+++ b/dados/dados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Windows\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e38171f1d409817/Projetos/Programação/API_PE/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E924C07-85AA-4360-9E1F-18F345CAED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{3E924C07-85AA-4360-9E1F-18F345CAED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D5851DF-2DA5-438D-88F6-6B3545A9CFC1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13182" uniqueCount="1375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13184" uniqueCount="1377">
   <si>
     <t>id_jogo</t>
   </si>
@@ -4180,6 +4180,12 @@
   </si>
   <si>
     <t>jogo1</t>
+  </si>
+  <si>
+    <t>pe2</t>
+  </si>
+  <si>
+    <t>Campeonato Pernambucano Série A2</t>
   </si>
 </sst>
 </file>
@@ -4303,6 +4309,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4574,7 +4584,7 @@
   <dimension ref="A1:O1420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71032,16 +71042,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A164356-87FB-44A8-B782-2DDA70AD5ABC}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -71074,6 +71084,14 @@
       </c>
       <c r="B4" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1376</v>
       </c>
     </row>
   </sheetData>

--- a/dados/dados.xlsx
+++ b/dados/dados.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e38171f1d409817/Projetos/Programação/API_PE/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{3E924C07-85AA-4360-9E1F-18F345CAED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D5851DF-2DA5-438D-88F6-6B3545A9CFC1}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{3E924C07-85AA-4360-9E1F-18F345CAED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{460C1B22-F89C-4B2E-B2D2-DF4578228D76}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jogos" sheetId="1" r:id="rId1"/>
-    <sheet name="Estádios" sheetId="21" r:id="rId2"/>
-    <sheet name="Observações" sheetId="15" r:id="rId3"/>
-    <sheet name="Campeões" sheetId="11" r:id="rId4"/>
-    <sheet name="Clubes" sheetId="12" r:id="rId5"/>
-    <sheet name="Artilharia" sheetId="13" r:id="rId6"/>
+    <sheet name="Artilharia" sheetId="13" r:id="rId2"/>
+    <sheet name="Estádios" sheetId="21" r:id="rId3"/>
+    <sheet name="Observações" sheetId="15" r:id="rId4"/>
+    <sheet name="Campeões" sheetId="11" r:id="rId5"/>
+    <sheet name="Clubes" sheetId="12" r:id="rId6"/>
     <sheet name="Jogadores" sheetId="14" r:id="rId7"/>
     <sheet name="Posições" sheetId="18" r:id="rId8"/>
     <sheet name="Mudanças" sheetId="16" r:id="rId9"/>
@@ -27,12 +27,12 @@
     <sheet name="Competições" sheetId="22" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Artilharia!$A$1:$F$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Clubes!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estádios!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Artilharia!$A$1:$F$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Clubes!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Estádios!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Grupos Cruzados'!$A$1:$E$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogos!$A$1:$O$1420</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Observações!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Observações!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Posições!$A$1:$D$348</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13184" uniqueCount="1377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13190" uniqueCount="1377">
   <si>
     <t>id_jogo</t>
   </si>
@@ -4583,8 +4583,8 @@
   </sheetPr>
   <dimension ref="A1:O1420"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71100,6 +71100,4356 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E747CBD-78B6-4FE5-8425-F4A954E56D29}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:F241"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C63" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C64" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C65" t="s">
+        <v>104</v>
+      </c>
+      <c r="F65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+      <c r="F68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C69" t="s">
+        <v>77</v>
+      </c>
+      <c r="F69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C71" t="s">
+        <v>77</v>
+      </c>
+      <c r="F71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C72" t="s">
+        <v>104</v>
+      </c>
+      <c r="F72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C73" t="s">
+        <v>104</v>
+      </c>
+      <c r="F73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B74" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" t="s">
+        <v>64</v>
+      </c>
+      <c r="F74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B75" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" t="s">
+        <v>79</v>
+      </c>
+      <c r="F76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B77" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+      <c r="F78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" t="s">
+        <v>79</v>
+      </c>
+      <c r="F80" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F82" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C83" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F83" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C85" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F85" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F86" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C87" t="s">
+        <v>80</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F87" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C88" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F88" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F89" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C90" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F90" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C91" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C92" t="s">
+        <v>64</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F92" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C93" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F93" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C94" t="s">
+        <v>64</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F94" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C95" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F95" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F96" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C97" t="s">
+        <v>83</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F97" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C98" t="s">
+        <v>83</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F98" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C99" t="s">
+        <v>83</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F99" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C100" t="s">
+        <v>83</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C101" t="s">
+        <v>83</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F101" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C102" t="s">
+        <v>88</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F102" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C103" t="s">
+        <v>82</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F103" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C104" t="s">
+        <v>82</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F104" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C105" t="s">
+        <v>81</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F105" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C106" t="s">
+        <v>83</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F106" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C107" t="s">
+        <v>83</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F107" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C108" t="s">
+        <v>79</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F108" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C109" t="s">
+        <v>95</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F109" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C110" t="s">
+        <v>95</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F110" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C111" t="s">
+        <v>81</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F111" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C112" t="s">
+        <v>83</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F112" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C113" t="s">
+        <v>84</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F113" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F114" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C115" t="s">
+        <v>88</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F115" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C116" t="s">
+        <v>86</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F116" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C117" t="s">
+        <v>88</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F117" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C118" t="s">
+        <v>88</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F118" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C119" t="s">
+        <v>100</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F119" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C120" t="s">
+        <v>77</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F120" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C121" t="s">
+        <v>81</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F121" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C122" t="s">
+        <v>81</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F122" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C123" t="s">
+        <v>81</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F123" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C124" t="s">
+        <v>79</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F124" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C125" t="s">
+        <v>79</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F125" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C126" t="s">
+        <v>79</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F126" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C127" t="s">
+        <v>79</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F127" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C128" t="s">
+        <v>79</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F128" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F129" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C130" t="s">
+        <v>81</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F130" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C131" t="s">
+        <v>82</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F131" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C132" t="s">
+        <v>84</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F132" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C133" t="s">
+        <v>83</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F133" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C134" t="s">
+        <v>84</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F134" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C135" t="s">
+        <v>77</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F135" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C136" t="s">
+        <v>100</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F136" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C137" t="s">
+        <v>98</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F137" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C138" t="s">
+        <v>80</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F138" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C139" t="s">
+        <v>98</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F139" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C140" t="s">
+        <v>80</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F140" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C141" t="s">
+        <v>98</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F141" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C142" t="s">
+        <v>83</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F142" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F143" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C144" t="s">
+        <v>84</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F144" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C145" t="s">
+        <v>84</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F145" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C146" t="s">
+        <v>84</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F146" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C147" t="s">
+        <v>88</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F147" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C148" t="s">
+        <v>100</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F148" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C149" t="s">
+        <v>79</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F149" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C150" t="s">
+        <v>82</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F150" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C151" t="s">
+        <v>96</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C152" t="s">
+        <v>96</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F152" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C153" t="s">
+        <v>96</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F153" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C154" t="s">
+        <v>82</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F154" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C155" t="s">
+        <v>77</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F155" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C156" t="s">
+        <v>77</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F156" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C157" t="s">
+        <v>98</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F157" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C158" t="s">
+        <v>80</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F158" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C159" t="s">
+        <v>83</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F159" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C160" t="s">
+        <v>83</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F160" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C161" t="s">
+        <v>79</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F161" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C162" t="s">
+        <v>83</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F162" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C163" t="s">
+        <v>97</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F163" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C164" t="s">
+        <v>82</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F164" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C165" t="s">
+        <v>77</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F165" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C166" t="s">
+        <v>86</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F166" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C167" t="s">
+        <v>77</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F167" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C168" t="s">
+        <v>79</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F168" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C169" t="s">
+        <v>79</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F169" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C170" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F170" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C171" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F171" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C172" t="s">
+        <v>83</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F172" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C173" t="s">
+        <v>88</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F173" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C174" t="s">
+        <v>64</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F174" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C175" t="s">
+        <v>79</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F175" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C176" t="s">
+        <v>79</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F176" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C177" t="s">
+        <v>64</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F177" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C178" t="s">
+        <v>64</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F178" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C179" t="s">
+        <v>81</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F179" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C180" t="s">
+        <v>81</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F180" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C181" t="s">
+        <v>77</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F181" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C182" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F182" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C183" t="s">
+        <v>80</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F183" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C184" t="s">
+        <v>97</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F184" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C185" t="s">
+        <v>96</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F185" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C186" t="s">
+        <v>96</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F186" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C187" t="s">
+        <v>96</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F187" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C188" t="s">
+        <v>96</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F188" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C189" t="s">
+        <v>95</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F189" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C190" t="s">
+        <v>100</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F190" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C191" t="s">
+        <v>100</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F191" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C192" t="s">
+        <v>100</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F192" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C193" t="s">
+        <v>83</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F193" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C194" t="s">
+        <v>83</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F194" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C195" t="s">
+        <v>84</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F195" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C196" t="s">
+        <v>84</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F196" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C197" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F197" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C198" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F198" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C199" t="s">
+        <v>79</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F199" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C200" t="s">
+        <v>79</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F200" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C201" t="s">
+        <v>86</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F201" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C202" t="s">
+        <v>79</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F202" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C203" t="s">
+        <v>64</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F203" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C204" t="s">
+        <v>64</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F204" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C205" t="s">
+        <v>64</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F205" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C206" t="s">
+        <v>95</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F206" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C207" t="s">
+        <v>83</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F207" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C208" t="s">
+        <v>83</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F208" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C209" t="s">
+        <v>83</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F209" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C210" t="s">
+        <v>83</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F210" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C211" t="s">
+        <v>83</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F211" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C212" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F212" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C213" t="s">
+        <v>83</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F213" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C214" t="s">
+        <v>83</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F214" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C215" t="s">
+        <v>64</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F215" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C216" t="s">
+        <v>64</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F216" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C217" t="s">
+        <v>77</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F217" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C218" t="s">
+        <v>64</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F218" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C219" t="s">
+        <v>83</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F219" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C220" t="s">
+        <v>64</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F220" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C221" t="s">
+        <v>95</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F221" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C222" t="s">
+        <v>79</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F222" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C223" t="s">
+        <v>64</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F223" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C224" t="s">
+        <v>100</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F224" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C225" t="s">
+        <v>97</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F225" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C226" t="s">
+        <v>100</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F226" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C227" t="s">
+        <v>80</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F227" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C228" t="s">
+        <v>81</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F228" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C229" t="s">
+        <v>81</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F229" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C230" t="s">
+        <v>83</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F230" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C231" t="s">
+        <v>98</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F231" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C232" t="s">
+        <v>80</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E232" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F232" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C233" t="s">
+        <v>96</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E233" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F233" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C234" t="s">
+        <v>80</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F234" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C235" t="s">
+        <v>82</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E235" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F235" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C236" t="s">
+        <v>82</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F236" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C237" t="s">
+        <v>15</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E237" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F237" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C238" t="s">
+        <v>15</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E238" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C239" t="s">
+        <v>96</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E239" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F239" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C240" t="s">
+        <v>84</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F240" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C241" t="s">
+        <v>83</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F241" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F83" xr:uid="{7E747CBD-78B6-4FE5-8425-F4A954E56D29}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F241">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FA46FD-28B3-4BDF-8C5A-38211828B570}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -71840,7 +76190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C05F0C-FB22-4DE4-ACC5-6F3D037481F0}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -72119,7 +76469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315A4814-890A-4769-89C6-39B531C31142}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -72461,7 +76811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A4852E-6220-430E-BF1D-3578526B01EB}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -73204,4336 +77554,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{55A4852E-6220-430E-BF1D-3578526B01EB}"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E747CBD-78B6-4FE5-8425-F4A954E56D29}">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:F240"/>
-  <sheetViews>
-    <sheetView topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="A240" sqref="A240"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C32" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C38" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C39" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C40" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C42" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B44" t="s">
-        <v>61</v>
-      </c>
-      <c r="F44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C45" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B46" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B47" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B48" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C49" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C51" t="s">
-        <v>79</v>
-      </c>
-      <c r="F51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C52" t="s">
-        <v>79</v>
-      </c>
-      <c r="F52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C53" t="s">
-        <v>100</v>
-      </c>
-      <c r="F53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C54" t="s">
-        <v>100</v>
-      </c>
-      <c r="F54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C55" t="s">
-        <v>84</v>
-      </c>
-      <c r="F55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C56" t="s">
-        <v>84</v>
-      </c>
-      <c r="F56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C57" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C59" t="s">
-        <v>77</v>
-      </c>
-      <c r="F59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C60" t="s">
-        <v>77</v>
-      </c>
-      <c r="F60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C61" t="s">
-        <v>64</v>
-      </c>
-      <c r="F61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C62" t="s">
-        <v>64</v>
-      </c>
-      <c r="F62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C63" t="s">
-        <v>64</v>
-      </c>
-      <c r="F63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C64" t="s">
-        <v>104</v>
-      </c>
-      <c r="F64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C65" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C66" t="s">
-        <v>79</v>
-      </c>
-      <c r="F66" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C67" t="s">
-        <v>79</v>
-      </c>
-      <c r="F67" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C68" t="s">
-        <v>77</v>
-      </c>
-      <c r="F68" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C69" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C70" t="s">
-        <v>77</v>
-      </c>
-      <c r="F70" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C71" t="s">
-        <v>104</v>
-      </c>
-      <c r="F71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C72" t="s">
-        <v>104</v>
-      </c>
-      <c r="F72" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B73" t="s">
-        <v>52</v>
-      </c>
-      <c r="C73" t="s">
-        <v>64</v>
-      </c>
-      <c r="F73" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B74" t="s">
-        <v>54</v>
-      </c>
-      <c r="C74" t="s">
-        <v>79</v>
-      </c>
-      <c r="F74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B75" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" t="s">
-        <v>79</v>
-      </c>
-      <c r="F75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B76" t="s">
-        <v>54</v>
-      </c>
-      <c r="C76" t="s">
-        <v>79</v>
-      </c>
-      <c r="F76" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B77" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77" t="s">
-        <v>79</v>
-      </c>
-      <c r="F77" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B78" t="s">
-        <v>57</v>
-      </c>
-      <c r="C78" t="s">
-        <v>79</v>
-      </c>
-      <c r="F78" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B79" t="s">
-        <v>57</v>
-      </c>
-      <c r="C79" t="s">
-        <v>79</v>
-      </c>
-      <c r="F79" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B80" t="s">
-        <v>59</v>
-      </c>
-      <c r="C80" t="s">
-        <v>79</v>
-      </c>
-      <c r="F80" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C81" t="s">
-        <v>64</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F81" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C82" t="s">
-        <v>64</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F82" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F83" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C84" t="s">
-        <v>96</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F84" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C85" t="s">
-        <v>79</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E85" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F85" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C86" t="s">
-        <v>80</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F86" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C87" t="s">
-        <v>79</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F87" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C88" t="s">
-        <v>97</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1142</v>
-      </c>
-      <c r="F88" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E89" t="s">
-        <v>1144</v>
-      </c>
-      <c r="F89" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C90" t="s">
-        <v>84</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1147</v>
-      </c>
-      <c r="F90" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C91" t="s">
-        <v>64</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F91" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C92" t="s">
-        <v>84</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F92" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C93" t="s">
-        <v>64</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1152</v>
-      </c>
-      <c r="F93" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C94" t="s">
-        <v>100</v>
-      </c>
-      <c r="D94" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F94" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C95" t="s">
-        <v>100</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F95" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C96" t="s">
-        <v>83</v>
-      </c>
-      <c r="D96" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1160</v>
-      </c>
-      <c r="F96" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C97" t="s">
-        <v>83</v>
-      </c>
-      <c r="D97" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F97" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C98" t="s">
-        <v>83</v>
-      </c>
-      <c r="D98" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E98" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F98" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C99" t="s">
-        <v>83</v>
-      </c>
-      <c r="D99" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E99" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F99" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C100" t="s">
-        <v>83</v>
-      </c>
-      <c r="D100" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E100" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F100" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C101" t="s">
-        <v>88</v>
-      </c>
-      <c r="D101" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E101" t="s">
-        <v>1152</v>
-      </c>
-      <c r="F101" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C102" t="s">
-        <v>82</v>
-      </c>
-      <c r="D102" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E102" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F102" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C103" t="s">
-        <v>82</v>
-      </c>
-      <c r="D103" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E103" t="s">
-        <v>1171</v>
-      </c>
-      <c r="F103" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C104" t="s">
-        <v>81</v>
-      </c>
-      <c r="D104" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E104" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F104" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C105" t="s">
-        <v>83</v>
-      </c>
-      <c r="D105" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E105" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F105" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C106" t="s">
-        <v>83</v>
-      </c>
-      <c r="D106" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E106" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F106" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C107" t="s">
-        <v>79</v>
-      </c>
-      <c r="D107" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E107" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F107" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C108" t="s">
-        <v>95</v>
-      </c>
-      <c r="D108" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E108" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F108" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C109" t="s">
-        <v>95</v>
-      </c>
-      <c r="D109" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E109" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F109" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C110" t="s">
-        <v>81</v>
-      </c>
-      <c r="D110" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E110" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F110" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C111" t="s">
-        <v>83</v>
-      </c>
-      <c r="D111" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E111" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F111" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C112" t="s">
-        <v>84</v>
-      </c>
-      <c r="D112" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E112" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F112" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C113" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E113" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F113" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B114" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C114" t="s">
-        <v>88</v>
-      </c>
-      <c r="D114" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E114" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F114" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B115" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C115" t="s">
-        <v>86</v>
-      </c>
-      <c r="D115" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E115" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F115" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C116" t="s">
-        <v>88</v>
-      </c>
-      <c r="D116" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E116" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F116" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C117" t="s">
-        <v>88</v>
-      </c>
-      <c r="D117" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E117" t="s">
-        <v>1197</v>
-      </c>
-      <c r="F117" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B118" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C118" t="s">
-        <v>100</v>
-      </c>
-      <c r="D118" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E118" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F118" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C119" t="s">
-        <v>77</v>
-      </c>
-      <c r="D119" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E119" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F119" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C120" t="s">
-        <v>81</v>
-      </c>
-      <c r="D120" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E120" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F120" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C121" t="s">
-        <v>81</v>
-      </c>
-      <c r="D121" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E121" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F121" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C122" t="s">
-        <v>81</v>
-      </c>
-      <c r="D122" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E122" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F122" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C123" t="s">
-        <v>79</v>
-      </c>
-      <c r="D123" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E123" t="s">
-        <v>1142</v>
-      </c>
-      <c r="F123" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B124" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C124" t="s">
-        <v>79</v>
-      </c>
-      <c r="D124" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E124" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F124" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B125" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C125" t="s">
-        <v>79</v>
-      </c>
-      <c r="D125" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E125" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F125" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C126" t="s">
-        <v>79</v>
-      </c>
-      <c r="D126" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E126" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F126" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C127" t="s">
-        <v>79</v>
-      </c>
-      <c r="D127" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E127" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F127" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C128" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E128" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F128" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C129" t="s">
-        <v>81</v>
-      </c>
-      <c r="D129" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E129" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F129" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C130" t="s">
-        <v>82</v>
-      </c>
-      <c r="D130" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E130" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F130" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C131" t="s">
-        <v>84</v>
-      </c>
-      <c r="D131" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E131" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F131" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C132" t="s">
-        <v>83</v>
-      </c>
-      <c r="D132" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E132" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F132" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C133" t="s">
-        <v>84</v>
-      </c>
-      <c r="D133" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E133" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F133" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C134" t="s">
-        <v>77</v>
-      </c>
-      <c r="D134" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E134" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F134" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C135" t="s">
-        <v>100</v>
-      </c>
-      <c r="D135" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E135" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F135" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C136" t="s">
-        <v>98</v>
-      </c>
-      <c r="D136" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E136" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F136" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C137" t="s">
-        <v>80</v>
-      </c>
-      <c r="D137" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E137" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F137" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C138" t="s">
-        <v>98</v>
-      </c>
-      <c r="D138" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E138" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F138" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C139" t="s">
-        <v>80</v>
-      </c>
-      <c r="D139" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E139" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F139" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C140" t="s">
-        <v>98</v>
-      </c>
-      <c r="D140" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E140" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F140" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B141" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C141" t="s">
-        <v>83</v>
-      </c>
-      <c r="D141" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E141" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F141" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C142" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E142" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F142" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B143" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C143" t="s">
-        <v>84</v>
-      </c>
-      <c r="D143" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E143" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F143" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C144" t="s">
-        <v>84</v>
-      </c>
-      <c r="D144" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E144" t="s">
-        <v>1236</v>
-      </c>
-      <c r="F144" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C145" t="s">
-        <v>84</v>
-      </c>
-      <c r="D145" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E145" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F145" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B146" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C146" t="s">
-        <v>88</v>
-      </c>
-      <c r="D146" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E146" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F146" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B147" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C147" t="s">
-        <v>100</v>
-      </c>
-      <c r="D147" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E147" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F147" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B148" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C148" t="s">
-        <v>79</v>
-      </c>
-      <c r="D148" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E148" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F148" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B149" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C149" t="s">
-        <v>82</v>
-      </c>
-      <c r="D149" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E149" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F149" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B150" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C150" t="s">
-        <v>96</v>
-      </c>
-      <c r="D150" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E150" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F150" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B151" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C151" t="s">
-        <v>96</v>
-      </c>
-      <c r="D151" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E151" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F151" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B152" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C152" t="s">
-        <v>96</v>
-      </c>
-      <c r="D152" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E152" t="s">
-        <v>1171</v>
-      </c>
-      <c r="F152" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B153" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C153" t="s">
-        <v>82</v>
-      </c>
-      <c r="D153" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E153" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F153" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C154" t="s">
-        <v>77</v>
-      </c>
-      <c r="D154" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E154" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F154" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B155" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C155" t="s">
-        <v>77</v>
-      </c>
-      <c r="D155" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E155" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F155" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B156" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C156" t="s">
-        <v>98</v>
-      </c>
-      <c r="D156" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E156" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F156" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C157" t="s">
-        <v>80</v>
-      </c>
-      <c r="D157" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E157" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F157" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B158" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C158" t="s">
-        <v>83</v>
-      </c>
-      <c r="D158" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E158" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F158" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B159" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C159" t="s">
-        <v>83</v>
-      </c>
-      <c r="D159" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E159" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F159" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B160" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C160" t="s">
-        <v>79</v>
-      </c>
-      <c r="D160" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E160" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F160" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B161" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C161" t="s">
-        <v>83</v>
-      </c>
-      <c r="D161" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E161" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F161" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B162" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C162" t="s">
-        <v>97</v>
-      </c>
-      <c r="D162" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E162" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F162" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B163" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C163" t="s">
-        <v>82</v>
-      </c>
-      <c r="D163" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E163" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F163" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B164" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C164" t="s">
-        <v>77</v>
-      </c>
-      <c r="D164" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E164" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F164" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B165" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C165" t="s">
-        <v>86</v>
-      </c>
-      <c r="D165" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E165" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F165" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B166" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C166" t="s">
-        <v>77</v>
-      </c>
-      <c r="D166" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E166" t="s">
-        <v>1152</v>
-      </c>
-      <c r="F166" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B167" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C167" t="s">
-        <v>79</v>
-      </c>
-      <c r="D167" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E167" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F167" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B168" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C168" t="s">
-        <v>79</v>
-      </c>
-      <c r="D168" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E168" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F168" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B169" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C169" t="s">
-        <v>15</v>
-      </c>
-      <c r="D169" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E169" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F169" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B170" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C170" t="s">
-        <v>15</v>
-      </c>
-      <c r="D170" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E170" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F170" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B171" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C171" t="s">
-        <v>83</v>
-      </c>
-      <c r="D171" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E171" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F171" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B172" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C172" t="s">
-        <v>88</v>
-      </c>
-      <c r="D172" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E172" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F172" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B173" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C173" t="s">
-        <v>64</v>
-      </c>
-      <c r="D173" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E173" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F173" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B174" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C174" t="s">
-        <v>79</v>
-      </c>
-      <c r="D174" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E174" t="s">
-        <v>1271</v>
-      </c>
-      <c r="F174" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B175" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C175" t="s">
-        <v>79</v>
-      </c>
-      <c r="D175" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E175" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F175" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B176" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C176" t="s">
-        <v>64</v>
-      </c>
-      <c r="D176" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E176" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F176" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C177" t="s">
-        <v>64</v>
-      </c>
-      <c r="D177" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E177" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F177" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B178" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C178" t="s">
-        <v>81</v>
-      </c>
-      <c r="D178" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E178" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F178" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B179" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C179" t="s">
-        <v>81</v>
-      </c>
-      <c r="D179" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E179" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F179" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B180" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C180" t="s">
-        <v>77</v>
-      </c>
-      <c r="D180" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E180" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F180" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B181" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C181" t="s">
-        <v>15</v>
-      </c>
-      <c r="D181" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E181" t="s">
-        <v>1142</v>
-      </c>
-      <c r="F181" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B182" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C182" t="s">
-        <v>80</v>
-      </c>
-      <c r="D182" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E182" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F182" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B183" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C183" t="s">
-        <v>97</v>
-      </c>
-      <c r="D183" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E183" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F183" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B184" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C184" t="s">
-        <v>96</v>
-      </c>
-      <c r="D184" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E184" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F184" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B185" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C185" t="s">
-        <v>96</v>
-      </c>
-      <c r="D185" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E185" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F185" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B186" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C186" t="s">
-        <v>96</v>
-      </c>
-      <c r="D186" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E186" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F186" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B187" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C187" t="s">
-        <v>96</v>
-      </c>
-      <c r="D187" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E187" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F187" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B188" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C188" t="s">
-        <v>95</v>
-      </c>
-      <c r="D188" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E188" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F188" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C189" t="s">
-        <v>100</v>
-      </c>
-      <c r="D189" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E189" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F189" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C190" t="s">
-        <v>100</v>
-      </c>
-      <c r="D190" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E190" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F190" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B191" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C191" t="s">
-        <v>100</v>
-      </c>
-      <c r="D191" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E191" t="s">
-        <v>1152</v>
-      </c>
-      <c r="F191" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B192" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C192" t="s">
-        <v>83</v>
-      </c>
-      <c r="D192" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E192" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F192" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B193" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C193" t="s">
-        <v>83</v>
-      </c>
-      <c r="D193" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E193" t="s">
-        <v>1271</v>
-      </c>
-      <c r="F193" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B194" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C194" t="s">
-        <v>84</v>
-      </c>
-      <c r="D194" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F194" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B195" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C195" t="s">
-        <v>84</v>
-      </c>
-      <c r="D195" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E195" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F195" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B196" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C196" t="s">
-        <v>15</v>
-      </c>
-      <c r="D196" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E196" t="s">
-        <v>1293</v>
-      </c>
-      <c r="F196" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C197" t="s">
-        <v>15</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F197" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B198" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C198" t="s">
-        <v>79</v>
-      </c>
-      <c r="D198" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E198" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F198" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B199" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C199" t="s">
-        <v>79</v>
-      </c>
-      <c r="D199" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E199" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F199" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B200" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C200" t="s">
-        <v>86</v>
-      </c>
-      <c r="D200" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E200" t="s">
-        <v>1297</v>
-      </c>
-      <c r="F200" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B201" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C201" t="s">
-        <v>79</v>
-      </c>
-      <c r="D201" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E201" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F201" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B202" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C202" t="s">
-        <v>64</v>
-      </c>
-      <c r="D202" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E202" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F202" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B203" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C203" t="s">
-        <v>64</v>
-      </c>
-      <c r="D203" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E203" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F203" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C204" t="s">
-        <v>64</v>
-      </c>
-      <c r="D204" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E204" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F204" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B205" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C205" t="s">
-        <v>95</v>
-      </c>
-      <c r="D205" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E205" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F205" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B206" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C206" t="s">
-        <v>83</v>
-      </c>
-      <c r="D206" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E206" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F206" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B207" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C207" t="s">
-        <v>83</v>
-      </c>
-      <c r="D207" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E207" t="s">
-        <v>1305</v>
-      </c>
-      <c r="F207" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B208" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C208" t="s">
-        <v>83</v>
-      </c>
-      <c r="D208" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E208" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F208" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B209" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C209" t="s">
-        <v>83</v>
-      </c>
-      <c r="D209" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E209" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F209" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B210" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C210" t="s">
-        <v>83</v>
-      </c>
-      <c r="D210" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E210" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F210" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B211" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C211" t="s">
-        <v>15</v>
-      </c>
-      <c r="D211" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E211" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F211" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B212" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C212" t="s">
-        <v>83</v>
-      </c>
-      <c r="D212" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E212" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F212" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B213" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C213" t="s">
-        <v>83</v>
-      </c>
-      <c r="D213" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E213" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F213" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C214" t="s">
-        <v>64</v>
-      </c>
-      <c r="D214" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E214" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F214" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B215" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C215" t="s">
-        <v>64</v>
-      </c>
-      <c r="D215" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E215" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F215" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B216" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C216" t="s">
-        <v>77</v>
-      </c>
-      <c r="D216" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E216" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F216" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B217" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C217" t="s">
-        <v>64</v>
-      </c>
-      <c r="D217" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E217" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F217" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B218" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C218" t="s">
-        <v>83</v>
-      </c>
-      <c r="D218" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E218" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F218" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B219" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C219" t="s">
-        <v>64</v>
-      </c>
-      <c r="D219" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E219" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F219" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B220" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C220" t="s">
-        <v>95</v>
-      </c>
-      <c r="D220" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E220" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F220" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B221" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C221" t="s">
-        <v>79</v>
-      </c>
-      <c r="D221" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E221" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F221" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B222" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C222" t="s">
-        <v>64</v>
-      </c>
-      <c r="D222" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E222" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F222" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B223" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C223" t="s">
-        <v>100</v>
-      </c>
-      <c r="D223" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E223" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F223" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B224" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C224" t="s">
-        <v>97</v>
-      </c>
-      <c r="D224" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E224" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F224" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B225" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C225" t="s">
-        <v>100</v>
-      </c>
-      <c r="D225" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E225" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F225" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B226" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C226" t="s">
-        <v>80</v>
-      </c>
-      <c r="D226" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E226" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F226" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B227" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C227" t="s">
-        <v>81</v>
-      </c>
-      <c r="D227" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E227" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F227" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B228" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C228" t="s">
-        <v>81</v>
-      </c>
-      <c r="D228" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E228" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F228" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B229" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C229" t="s">
-        <v>83</v>
-      </c>
-      <c r="D229" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E229" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F229" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B230" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C230" t="s">
-        <v>98</v>
-      </c>
-      <c r="D230" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E230" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F230" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B231" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C231" t="s">
-        <v>80</v>
-      </c>
-      <c r="D231" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E231" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F231" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B232" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C232" t="s">
-        <v>96</v>
-      </c>
-      <c r="D232" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E232" t="s">
-        <v>1171</v>
-      </c>
-      <c r="F232" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B233" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C233" t="s">
-        <v>80</v>
-      </c>
-      <c r="D233" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E233" t="s">
-        <v>1293</v>
-      </c>
-      <c r="F233" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B234" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C234" t="s">
-        <v>82</v>
-      </c>
-      <c r="D234" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E234" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F234" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B235" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C235" t="s">
-        <v>82</v>
-      </c>
-      <c r="D235" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E235" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F235" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B236" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C236" t="s">
-        <v>15</v>
-      </c>
-      <c r="D236" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E236" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F236" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B237" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C237" t="s">
-        <v>15</v>
-      </c>
-      <c r="D237" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E237" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F237" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B238" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C238" t="s">
-        <v>96</v>
-      </c>
-      <c r="D238" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E238" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F238" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B239" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C239" t="s">
-        <v>84</v>
-      </c>
-      <c r="D239" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E239" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F239" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B240" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C240" t="s">
-        <v>83</v>
-      </c>
-      <c r="D240" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E240" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F240" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F82" xr:uid="{7E747CBD-78B6-4FE5-8425-F4A954E56D29}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F240">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/dados/dados.xlsx
+++ b/dados/dados.xlsx
@@ -8,34 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e38171f1d409817/Projetos/Programação/API_PE/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="277" documentId="8_{3E924C07-85AA-4360-9E1F-18F345CAED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9052B7F3-2024-4DBC-BE17-F42D21FE34A1}"/>
+  <xr:revisionPtr revIDLastSave="544" documentId="8_{3E924C07-85AA-4360-9E1F-18F345CAED8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{282C8FF3-5517-4872-92D1-83523005C01F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15360" tabRatio="748" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15360" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jogos" sheetId="1" r:id="rId1"/>
-    <sheet name="Estádios" sheetId="21" r:id="rId2"/>
-    <sheet name="Clubes" sheetId="12" r:id="rId3"/>
+    <sheet name="Clubes" sheetId="12" r:id="rId2"/>
+    <sheet name="Estádios" sheetId="21" r:id="rId3"/>
     <sheet name="Artilharia" sheetId="13" r:id="rId4"/>
     <sheet name="Jogadores" sheetId="14" r:id="rId5"/>
     <sheet name="Observações" sheetId="15" r:id="rId6"/>
     <sheet name="Mudanças" sheetId="16" r:id="rId7"/>
-    <sheet name="Competições" sheetId="22" r:id="rId8"/>
-    <sheet name="Campeões" sheetId="11" r:id="rId9"/>
-    <sheet name="Posições" sheetId="18" r:id="rId10"/>
-    <sheet name="Grupos Cruzados" sheetId="19" r:id="rId11"/>
-    <sheet name="Segundos Colocados" sheetId="20" r:id="rId12"/>
+    <sheet name="Ajustes Pontuação" sheetId="24" r:id="rId8"/>
+    <sheet name="Competições" sheetId="22" r:id="rId9"/>
+    <sheet name="Competições Dados" sheetId="23" r:id="rId10"/>
+    <sheet name="Campeões" sheetId="11" r:id="rId11"/>
+    <sheet name="Posições" sheetId="18" r:id="rId12"/>
+    <sheet name="Grupos Cruzados" sheetId="19" r:id="rId13"/>
+    <sheet name="Segundos Colocados" sheetId="20" r:id="rId14"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Ajustes Pontuação'!$A$1:$F$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Artilharia!$A$1:$F$241</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Campeões!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Clubes!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estádios!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Grupos Cruzados'!$A$1:$E$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogos!$A$1:$O$1420</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Campeões!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Clubes!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Competições Dados'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Estádios!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Grupos Cruzados'!$A$1:$E$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Jogos!$A$1:$O$1438</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Observações!$A$1:$B$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Posições!$A$1:$D$348</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Segundos Colocados'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Posições!$A$1:$D$348</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Segundos Colocados'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13346" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13433" uniqueCount="1488">
   <si>
     <t>Botafogo-PB</t>
   </si>
@@ -4271,33 +4275,15 @@
     <t>1915-08-01</t>
   </si>
   <si>
-    <t>Santa Cruz</t>
-  </si>
-  <si>
-    <t>Colligação</t>
-  </si>
-  <si>
     <t>Campina do Derby</t>
   </si>
   <si>
     <t>1915-08-08</t>
   </si>
   <si>
-    <t>Torre</t>
-  </si>
-  <si>
-    <t>América</t>
-  </si>
-  <si>
     <t>1915-08-15</t>
   </si>
   <si>
-    <t>Flamengo do Recife</t>
-  </si>
-  <si>
-    <t>Peres</t>
-  </si>
-  <si>
     <t>1915-08-29</t>
   </si>
   <si>
@@ -4364,9 +4350,6 @@
     <t>Peres_Flamengo do Recife</t>
   </si>
   <si>
-    <t>1915-08-29_Colligação_América</t>
-  </si>
-  <si>
     <t>Colligação_América</t>
   </si>
   <si>
@@ -4400,18 +4383,12 @@
     <t>Flamengo do Recife_Santa Cruz</t>
   </si>
   <si>
-    <t>1915-09-26_Peres_Colligação</t>
-  </si>
-  <si>
     <t>Peres_Colligação</t>
   </si>
   <si>
     <t>Colligação_Peres</t>
   </si>
   <si>
-    <t>1915-10-03_Torre_Peres</t>
-  </si>
-  <si>
     <t>Torre_Peres</t>
   </si>
   <si>
@@ -4427,18 +4404,12 @@
     <t>América_Santa Cruz</t>
   </si>
   <si>
-    <t>1915-10-10_Torre_Colligação</t>
-  </si>
-  <si>
     <t>Torre_Colligação</t>
   </si>
   <si>
     <t>Colligação_Torre</t>
   </si>
   <si>
-    <t>1915-10-17_América_Peres</t>
-  </si>
-  <si>
     <t>América_Peres</t>
   </si>
   <si>
@@ -4454,9 +4425,6 @@
     <t>Torre_Flamengo do Recife</t>
   </si>
   <si>
-    <t>1915-10-27_Flamengo do Recife_América</t>
-  </si>
-  <si>
     <t>Flamengo do Recife_América</t>
   </si>
   <si>
@@ -4485,6 +4453,78 @@
   </si>
   <si>
     <t>Pernambucano Série A2</t>
+  </si>
+  <si>
+    <t>COMPETICAO_PTS_VITORIA</t>
+  </si>
+  <si>
+    <t>COMPETICAO_PTS_EMPATE_COM_GOLS</t>
+  </si>
+  <si>
+    <t>COMPETICAO_PTS_EMPATE_SEM_GOLS</t>
+  </si>
+  <si>
+    <t>AJUSTE_CLUBE</t>
+  </si>
+  <si>
+    <t>12 de abril de 1914</t>
+  </si>
+  <si>
+    <t>america-pe</t>
+  </si>
+  <si>
+    <t>AJUSTE_VITORIA</t>
+  </si>
+  <si>
+    <t>AJUSTE_EMPATE</t>
+  </si>
+  <si>
+    <t>AJUSTE_DERROTA</t>
+  </si>
+  <si>
+    <t>AJUSTE_PONTOS</t>
+  </si>
+  <si>
+    <t>Colligação-PE</t>
+  </si>
+  <si>
+    <t>Colligação Sportiva Recifense</t>
+  </si>
+  <si>
+    <t>colligacao-pe</t>
+  </si>
+  <si>
+    <t>1915-08-29_colligacao-pe_america-pe</t>
+  </si>
+  <si>
+    <t>AJUSTE_ID_PARTIDA</t>
+  </si>
+  <si>
+    <t>1915-10-10_torre-pe_colligacao-pe</t>
+  </si>
+  <si>
+    <t>torre-pe</t>
+  </si>
+  <si>
+    <t>Torre Sport Club</t>
+  </si>
+  <si>
+    <t>teestedd</t>
+  </si>
+  <si>
+    <t>1915-09-26_peres-pe_colligacao-pe</t>
+  </si>
+  <si>
+    <t>1915-10-03_torre-pe_peres-pe</t>
+  </si>
+  <si>
+    <t>1915-10-17_america-pe_peres-pe</t>
+  </si>
+  <si>
+    <t>1915-10-27_flamengo_recife-pe_america-pe</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -4914,8 +4954,8 @@
   </sheetPr>
   <dimension ref="A1:O1438"/>
   <sheetViews>
-    <sheetView topLeftCell="A1409" workbookViewId="0">
-      <selection activeCell="C1428" sqref="C1428"/>
+    <sheetView tabSelected="1" topLeftCell="A1413" workbookViewId="0">
+      <selection activeCell="F1423" sqref="F1423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5026,7 +5066,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1285</v>
+        <v>1482</v>
       </c>
       <c r="B3" s="7">
         <v>1994</v>
@@ -5046,8 +5086,12 @@
       <c r="I3" s="4" t="s">
         <v>1288</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="J3" s="4">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4">
+        <v>9</v>
+      </c>
       <c r="L3" s="4" t="s">
         <v>1289</v>
       </c>
@@ -70068,13 +70112,13 @@
     </row>
     <row r="1421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1421" s="2" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="B1421" s="7">
         <v>1915</v>
       </c>
       <c r="C1421" s="2" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="D1421" s="2" t="s">
         <v>1403</v>
@@ -70082,43 +70126,55 @@
       <c r="E1421" s="3">
         <v>0.66666666666666663</v>
       </c>
+      <c r="F1421" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G1421" s="2" t="s">
+        <v>1487</v>
+      </c>
       <c r="I1421" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1421">
+        <v>1</v>
+      </c>
+      <c r="K1421">
+        <v>0</v>
+      </c>
+      <c r="L1421" t="s">
+        <v>1474</v>
+      </c>
+      <c r="M1421" t="s">
         <v>1404</v>
       </c>
-      <c r="J1421">
-        <v>1</v>
-      </c>
-      <c r="K1421">
-        <v>0</v>
-      </c>
-      <c r="L1421" t="s">
-        <v>1405</v>
-      </c>
-      <c r="M1421" t="s">
-        <v>1406</v>
-      </c>
       <c r="N1421" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="O1421" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1422" s="2" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="B1422" s="7">
         <v>1915</v>
       </c>
       <c r="C1422" s="2" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="D1422" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
+      </c>
+      <c r="F1422" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G1422" s="2" t="s">
+        <v>1487</v>
       </c>
       <c r="I1422" t="s">
-        <v>1408</v>
+        <v>1281</v>
       </c>
       <c r="J1422">
         <v>2</v>
@@ -70127,33 +70183,39 @@
         <v>0</v>
       </c>
       <c r="L1422" t="s">
-        <v>1409</v>
+        <v>1278</v>
       </c>
       <c r="M1422" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="N1422" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="O1422" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1423" s="2" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="B1423" s="7">
         <v>1915</v>
       </c>
       <c r="C1423" s="2" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="D1423" s="2" t="s">
-        <v>1410</v>
+        <v>1406</v>
+      </c>
+      <c r="F1423" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G1423" s="2" t="s">
+        <v>1487</v>
       </c>
       <c r="I1423" t="s">
-        <v>1411</v>
+        <v>1279</v>
       </c>
       <c r="J1423">
         <v>2</v>
@@ -70162,97 +70224,115 @@
         <v>1</v>
       </c>
       <c r="L1423" t="s">
-        <v>1412</v>
+        <v>1283</v>
       </c>
       <c r="M1423" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="N1423" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="O1423" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1424" s="2" t="s">
-        <v>1435</v>
+        <v>1477</v>
       </c>
       <c r="B1424" s="7">
         <v>1915</v>
       </c>
       <c r="C1424" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D1424" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F1424" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G1424" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="I1424" t="s">
         <v>1474</v>
       </c>
-      <c r="D1424" s="2" t="s">
-        <v>1413</v>
-      </c>
-      <c r="I1424" t="s">
-        <v>1405</v>
-      </c>
       <c r="L1424" t="s">
-        <v>1409</v>
+        <v>1278</v>
       </c>
       <c r="M1424" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="N1424" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="O1424" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1425" s="2" t="s">
-        <v>1438</v>
+        <v>1431</v>
       </c>
       <c r="B1425" s="7">
         <v>1915</v>
       </c>
       <c r="C1425" s="2" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="D1425" s="2" t="s">
-        <v>1414</v>
+        <v>1408</v>
+      </c>
+      <c r="F1425" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G1425" s="2" t="s">
+        <v>1487</v>
       </c>
       <c r="I1425" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1425">
+        <v>0</v>
+      </c>
+      <c r="K1425">
+        <v>0</v>
+      </c>
+      <c r="L1425" t="s">
+        <v>1281</v>
+      </c>
+      <c r="M1425" t="s">
         <v>1404</v>
       </c>
-      <c r="J1425">
-        <v>0</v>
-      </c>
-      <c r="K1425">
-        <v>0</v>
-      </c>
-      <c r="L1425" t="s">
-        <v>1408</v>
-      </c>
-      <c r="M1425" t="s">
-        <v>1406</v>
-      </c>
       <c r="N1425" t="s">
-        <v>1439</v>
+        <v>1432</v>
       </c>
       <c r="O1425" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1426" s="2" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
       <c r="B1426" s="7">
         <v>1915</v>
       </c>
       <c r="C1426" s="2" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="D1426" s="2" t="s">
-        <v>1415</v>
+        <v>1409</v>
+      </c>
+      <c r="F1426" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G1426" s="2" t="s">
+        <v>1487</v>
       </c>
       <c r="I1426" t="s">
-        <v>1411</v>
+        <v>1279</v>
       </c>
       <c r="J1426">
         <v>3</v>
@@ -70261,126 +70341,150 @@
         <v>0</v>
       </c>
       <c r="L1426" t="s">
-        <v>1405</v>
+        <v>1474</v>
       </c>
       <c r="M1426" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="N1426" t="s">
-        <v>1442</v>
+        <v>1435</v>
       </c>
       <c r="O1426" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1427" s="2" t="s">
-        <v>1444</v>
+        <v>1437</v>
       </c>
       <c r="B1427" s="7">
         <v>1915</v>
       </c>
       <c r="C1427" s="2" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="D1427" s="2" t="s">
-        <v>1416</v>
+        <v>1410</v>
+      </c>
+      <c r="F1427" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G1427" s="2" t="s">
+        <v>1487</v>
       </c>
       <c r="I1427" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1427">
+        <v>0</v>
+      </c>
+      <c r="K1427">
+        <v>0</v>
+      </c>
+      <c r="L1427" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M1427" t="s">
         <v>1404</v>
       </c>
-      <c r="J1427">
-        <v>0</v>
-      </c>
-      <c r="K1427">
-        <v>0</v>
-      </c>
-      <c r="L1427" t="s">
-        <v>1411</v>
-      </c>
-      <c r="M1427" t="s">
-        <v>1406</v>
-      </c>
       <c r="N1427" t="s">
-        <v>1445</v>
+        <v>1438</v>
       </c>
       <c r="O1427" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1428" s="2" t="s">
-        <v>1447</v>
+        <v>1483</v>
       </c>
       <c r="B1428" s="7">
         <v>1915</v>
       </c>
       <c r="C1428" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D1428" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F1428" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G1428" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="I1428" t="s">
+        <v>1283</v>
+      </c>
+      <c r="L1428" t="s">
         <v>1474</v>
       </c>
-      <c r="D1428" s="2" t="s">
-        <v>1417</v>
-      </c>
-      <c r="I1428" t="s">
-        <v>1412</v>
-      </c>
-      <c r="L1428" t="s">
-        <v>1405</v>
-      </c>
       <c r="M1428" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="N1428" t="s">
-        <v>1448</v>
+        <v>1440</v>
       </c>
       <c r="O1428" t="s">
-        <v>1449</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1429" s="2" t="s">
-        <v>1450</v>
+        <v>1484</v>
       </c>
       <c r="B1429" s="7">
         <v>1915</v>
       </c>
       <c r="C1429" s="2" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="D1429" s="2" t="s">
-        <v>1418</v>
+        <v>1412</v>
+      </c>
+      <c r="F1429" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G1429" s="2" t="s">
+        <v>1487</v>
       </c>
       <c r="I1429" t="s">
-        <v>1408</v>
+        <v>1281</v>
       </c>
       <c r="L1429" t="s">
-        <v>1412</v>
+        <v>1283</v>
       </c>
       <c r="M1429" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="N1429" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="O1429" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1430" s="2" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="B1430" s="7">
         <v>1915</v>
       </c>
       <c r="C1430" s="2" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="D1430" s="2" t="s">
-        <v>1419</v>
+        <v>1413</v>
+      </c>
+      <c r="F1430" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G1430" s="2" t="s">
+        <v>1487</v>
       </c>
       <c r="I1430" t="s">
-        <v>1404</v>
+        <v>2</v>
       </c>
       <c r="J1430">
         <v>4</v>
@@ -70389,91 +70493,109 @@
         <v>0</v>
       </c>
       <c r="L1430" t="s">
-        <v>1409</v>
+        <v>1278</v>
       </c>
       <c r="M1430" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="N1430" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="O1430" t="s">
-        <v>1455</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1431" s="2" t="s">
-        <v>1456</v>
+        <v>1479</v>
       </c>
       <c r="B1431" s="7">
         <v>1915</v>
       </c>
       <c r="C1431" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D1431" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F1431" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G1431" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="I1431" t="s">
+        <v>1281</v>
+      </c>
+      <c r="L1431" t="s">
         <v>1474</v>
       </c>
-      <c r="D1431" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="I1431" t="s">
-        <v>1408</v>
-      </c>
-      <c r="L1431" t="s">
-        <v>1405</v>
-      </c>
       <c r="M1431" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="N1431" t="s">
-        <v>1457</v>
+        <v>1447</v>
       </c>
       <c r="O1431" t="s">
-        <v>1458</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1432" s="2" t="s">
-        <v>1459</v>
+        <v>1485</v>
       </c>
       <c r="B1432" s="7">
         <v>1915</v>
       </c>
       <c r="C1432" s="2" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="D1432" s="2" t="s">
-        <v>1420</v>
+        <v>1414</v>
+      </c>
+      <c r="F1432" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G1432" s="2" t="s">
+        <v>1487</v>
       </c>
       <c r="I1432" t="s">
-        <v>1409</v>
+        <v>1278</v>
       </c>
       <c r="L1432" t="s">
-        <v>1412</v>
+        <v>1283</v>
       </c>
       <c r="M1432" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="N1432" t="s">
-        <v>1460</v>
+        <v>1449</v>
       </c>
       <c r="O1432" t="s">
-        <v>1461</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1433" s="2" t="s">
-        <v>1462</v>
+        <v>1451</v>
       </c>
       <c r="B1433" s="7">
         <v>1915</v>
       </c>
       <c r="C1433" s="2" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="D1433" s="2" t="s">
-        <v>1420</v>
+        <v>1414</v>
+      </c>
+      <c r="F1433" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G1433" s="2" t="s">
+        <v>1487</v>
       </c>
       <c r="I1433" t="s">
-        <v>1411</v>
+        <v>1279</v>
       </c>
       <c r="J1433">
         <v>1</v>
@@ -70482,62 +70604,74 @@
         <v>1</v>
       </c>
       <c r="L1433" t="s">
-        <v>1408</v>
+        <v>1281</v>
       </c>
       <c r="M1433" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="N1433" t="s">
-        <v>1463</v>
+        <v>1452</v>
       </c>
       <c r="O1433" t="s">
-        <v>1464</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1434" s="2" t="s">
-        <v>1465</v>
+        <v>1486</v>
       </c>
       <c r="B1434" s="7">
         <v>1915</v>
       </c>
       <c r="C1434" s="2" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="D1434" s="2" t="s">
-        <v>1421</v>
+        <v>1415</v>
+      </c>
+      <c r="F1434" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G1434" s="2" t="s">
+        <v>1487</v>
       </c>
       <c r="I1434" t="s">
-        <v>1411</v>
+        <v>1279</v>
       </c>
       <c r="L1434" t="s">
-        <v>1409</v>
+        <v>1278</v>
       </c>
       <c r="M1434" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="N1434" t="s">
-        <v>1466</v>
+        <v>1454</v>
       </c>
       <c r="O1434" t="s">
-        <v>1467</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1435" s="2" t="s">
-        <v>1468</v>
+        <v>1456</v>
       </c>
       <c r="B1435" s="7">
         <v>1915</v>
       </c>
       <c r="C1435" s="2" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="D1435" s="2" t="s">
-        <v>1422</v>
+        <v>1416</v>
+      </c>
+      <c r="F1435" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G1435" s="2" t="s">
+        <v>1487</v>
       </c>
       <c r="I1435" t="s">
-        <v>1404</v>
+        <v>2</v>
       </c>
       <c r="J1435">
         <v>3</v>
@@ -70546,36 +70680,39 @@
         <v>0</v>
       </c>
       <c r="L1435" t="s">
-        <v>1412</v>
+        <v>1283</v>
       </c>
       <c r="M1435" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="N1435" t="s">
-        <v>1469</v>
+        <v>1457</v>
       </c>
       <c r="O1435" t="s">
-        <v>1470</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1436" s="2" t="s">
-        <v>1471</v>
+        <v>1459</v>
       </c>
       <c r="B1436" s="7">
         <v>1915</v>
       </c>
       <c r="C1436" s="2" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="D1436" s="2" t="s">
-        <v>1423</v>
+        <v>1417</v>
+      </c>
+      <c r="F1436" s="2" t="s">
+        <v>1487</v>
       </c>
       <c r="G1436" s="2" t="s">
         <v>1276</v>
       </c>
       <c r="I1436" t="s">
-        <v>1404</v>
+        <v>2</v>
       </c>
       <c r="J1436">
         <v>5</v>
@@ -70584,36 +70721,39 @@
         <v>0</v>
       </c>
       <c r="L1436" t="s">
-        <v>1408</v>
+        <v>1281</v>
       </c>
       <c r="M1436" t="s">
         <v>1242</v>
       </c>
       <c r="N1436" t="s">
-        <v>1439</v>
+        <v>1432</v>
       </c>
       <c r="O1436" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1437" s="2" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
       <c r="B1437" s="7">
         <v>1915</v>
       </c>
       <c r="C1437" s="2" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="D1437" s="2" t="s">
-        <v>1424</v>
+        <v>1418</v>
+      </c>
+      <c r="F1437" s="2" t="s">
+        <v>1487</v>
       </c>
       <c r="G1437" s="2" t="s">
         <v>1276</v>
       </c>
       <c r="I1437" t="s">
-        <v>1411</v>
+        <v>1279</v>
       </c>
       <c r="J1437">
         <v>6</v>
@@ -70622,36 +70762,39 @@
         <v>2</v>
       </c>
       <c r="L1437" t="s">
-        <v>1404</v>
+        <v>2</v>
       </c>
       <c r="M1437" t="s">
         <v>1242</v>
       </c>
       <c r="N1437" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
       <c r="O1437" t="s">
-        <v>1445</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1438" s="2" t="s">
-        <v>1473</v>
+        <v>1461</v>
       </c>
       <c r="B1438" s="7">
         <v>1915</v>
       </c>
       <c r="C1438" s="2" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
       <c r="D1438" s="2" t="s">
-        <v>1425</v>
+        <v>1419</v>
+      </c>
+      <c r="F1438" s="2" t="s">
+        <v>1487</v>
       </c>
       <c r="G1438" s="2" t="s">
         <v>1276</v>
       </c>
       <c r="I1438" t="s">
-        <v>1411</v>
+        <v>1279</v>
       </c>
       <c r="J1438">
         <v>3</v>
@@ -70660,26 +70803,467 @@
         <v>1</v>
       </c>
       <c r="L1438" t="s">
-        <v>1408</v>
+        <v>1281</v>
       </c>
       <c r="M1438" t="s">
         <v>1242</v>
       </c>
       <c r="N1438" t="s">
-        <v>1463</v>
+        <v>1452</v>
       </c>
       <c r="O1438" t="s">
-        <v>1464</v>
+        <v>1453</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1420" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O1438" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB6862C-959B-4FEF-A496-1C0379DF50EF}">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B2">
+        <v>1915</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B3">
+        <v>2023</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B4">
+        <v>1994</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{DFB6862C-959B-4FEF-A496-1C0379DF50EF}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315A4814-890A-4769-89C6-39B531C31142}">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1994</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1997</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1998</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2002</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>2003</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2010</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2013</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2014</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2015</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>2016</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2017</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2018</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>2019</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>2020</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2021</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>2022</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>2022</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>2021</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>2020</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>2019</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>2018</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>2017</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>2016</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>2015</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1916</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{315A4814-890A-4769-89C6-39B531C31142}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76D607A-2D3E-4C1D-A982-A1FDB1346BEB}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -75700,7 +76284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A94484F-F902-4563-8EC0-6B82F8E03025}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -76830,7 +77414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A835166-5D63-47DF-9B79-E0805616E3A4}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -77010,6 +77594,811 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A4852E-6220-430E-BF1D-3578526B01EB}">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" t="s">
+        <v>332</v>
+      </c>
+      <c r="E11" t="s">
+        <v>307</v>
+      </c>
+      <c r="F11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>337</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>325</v>
+      </c>
+      <c r="B19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" t="s">
+        <v>326</v>
+      </c>
+      <c r="D19" t="s">
+        <v>329</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>334</v>
+      </c>
+      <c r="B20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" t="s">
+        <v>335</v>
+      </c>
+      <c r="D20" t="s">
+        <v>336</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>321</v>
+      </c>
+      <c r="B21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" t="s">
+        <v>328</v>
+      </c>
+      <c r="D21" t="s">
+        <v>330</v>
+      </c>
+      <c r="E21" t="s">
+        <v>289</v>
+      </c>
+      <c r="F21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>312</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>323</v>
+      </c>
+      <c r="B23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" t="s">
+        <v>324</v>
+      </c>
+      <c r="D23" t="s">
+        <v>327</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>302</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>319</v>
+      </c>
+      <c r="D28" t="s">
+        <v>308</v>
+      </c>
+      <c r="E28" t="s">
+        <v>307</v>
+      </c>
+      <c r="F28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>320</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>322</v>
+      </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>577</v>
+      </c>
+      <c r="B32" t="s">
+        <v>575</v>
+      </c>
+      <c r="C32" t="s">
+        <v>580</v>
+      </c>
+      <c r="D32" t="s">
+        <v>579</v>
+      </c>
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>583</v>
+      </c>
+      <c r="B33" t="s">
+        <v>576</v>
+      </c>
+      <c r="C33" t="s">
+        <v>584</v>
+      </c>
+      <c r="D33" t="s">
+        <v>581</v>
+      </c>
+      <c r="E33" t="s">
+        <v>307</v>
+      </c>
+      <c r="F33" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>585</v>
+      </c>
+      <c r="B34" t="s">
+        <v>546</v>
+      </c>
+      <c r="C34" t="s">
+        <v>588</v>
+      </c>
+      <c r="D34" t="s">
+        <v>586</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>590</v>
+      </c>
+      <c r="B35" t="s">
+        <v>591</v>
+      </c>
+      <c r="C35" t="s">
+        <v>589</v>
+      </c>
+      <c r="D35" t="s">
+        <v>592</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>795</v>
+      </c>
+      <c r="B36" t="s">
+        <v>793</v>
+      </c>
+      <c r="C36" t="s">
+        <v>796</v>
+      </c>
+      <c r="D36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C38">
+        <v>1915</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{55A4852E-6220-430E-BF1D-3578526B01EB}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FA46FD-28B3-4BDF-8C5A-38211828B570}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -77748,754 +79137,6 @@
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A4852E-6220-430E-BF1D-3578526B01EB}">
-  <sheetPr>
-    <tabColor rgb="FF002060"/>
-  </sheetPr>
-  <dimension ref="A1:F36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E4" t="s">
-        <v>289</v>
-      </c>
-      <c r="F4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>293</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>295</v>
-      </c>
-      <c r="D6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>297</v>
-      </c>
-      <c r="D8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E8" t="s">
-        <v>289</v>
-      </c>
-      <c r="F8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>310</v>
-      </c>
-      <c r="D10" t="s">
-        <v>308</v>
-      </c>
-      <c r="E10" t="s">
-        <v>307</v>
-      </c>
-      <c r="F10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>331</v>
-      </c>
-      <c r="B11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" t="s">
-        <v>333</v>
-      </c>
-      <c r="D11" t="s">
-        <v>332</v>
-      </c>
-      <c r="E11" t="s">
-        <v>307</v>
-      </c>
-      <c r="F11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>287</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>290</v>
-      </c>
-      <c r="D12" t="s">
-        <v>288</v>
-      </c>
-      <c r="E12" t="s">
-        <v>289</v>
-      </c>
-      <c r="F12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>299</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" t="s">
-        <v>300</v>
-      </c>
-      <c r="D13" t="s">
-        <v>301</v>
-      </c>
-      <c r="E13" t="s">
-        <v>289</v>
-      </c>
-      <c r="F13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>306</v>
-      </c>
-      <c r="D14" t="s">
-        <v>288</v>
-      </c>
-      <c r="E14" t="s">
-        <v>289</v>
-      </c>
-      <c r="F14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B15" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" t="s">
-        <v>314</v>
-      </c>
-      <c r="D15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>315</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" t="s">
-        <v>316</v>
-      </c>
-      <c r="D16" t="s">
-        <v>317</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>337</v>
-      </c>
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" t="s">
-        <v>338</v>
-      </c>
-      <c r="D18" t="s">
-        <v>339</v>
-      </c>
-      <c r="E18" t="s">
-        <v>123</v>
-      </c>
-      <c r="F18" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>325</v>
-      </c>
-      <c r="B19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C19" t="s">
-        <v>326</v>
-      </c>
-      <c r="D19" t="s">
-        <v>329</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>334</v>
-      </c>
-      <c r="B20" t="s">
-        <v>192</v>
-      </c>
-      <c r="C20" t="s">
-        <v>335</v>
-      </c>
-      <c r="D20" t="s">
-        <v>336</v>
-      </c>
-      <c r="E20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>321</v>
-      </c>
-      <c r="B21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" t="s">
-        <v>328</v>
-      </c>
-      <c r="D21" t="s">
-        <v>330</v>
-      </c>
-      <c r="E21" t="s">
-        <v>289</v>
-      </c>
-      <c r="F21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>309</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>312</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>323</v>
-      </c>
-      <c r="B23" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" t="s">
-        <v>324</v>
-      </c>
-      <c r="D23" t="s">
-        <v>327</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>302</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>303</v>
-      </c>
-      <c r="D26" t="s">
-        <v>304</v>
-      </c>
-      <c r="E26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>318</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" t="s">
-        <v>319</v>
-      </c>
-      <c r="D28" t="s">
-        <v>308</v>
-      </c>
-      <c r="E28" t="s">
-        <v>307</v>
-      </c>
-      <c r="F28" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>320</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>322</v>
-      </c>
-      <c r="D30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>577</v>
-      </c>
-      <c r="B32" t="s">
-        <v>575</v>
-      </c>
-      <c r="C32" t="s">
-        <v>580</v>
-      </c>
-      <c r="D32" t="s">
-        <v>579</v>
-      </c>
-      <c r="E32" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>583</v>
-      </c>
-      <c r="B33" t="s">
-        <v>576</v>
-      </c>
-      <c r="C33" t="s">
-        <v>584</v>
-      </c>
-      <c r="D33" t="s">
-        <v>581</v>
-      </c>
-      <c r="E33" t="s">
-        <v>307</v>
-      </c>
-      <c r="F33" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>585</v>
-      </c>
-      <c r="B34" t="s">
-        <v>546</v>
-      </c>
-      <c r="C34" t="s">
-        <v>588</v>
-      </c>
-      <c r="D34" t="s">
-        <v>586</v>
-      </c>
-      <c r="E34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>590</v>
-      </c>
-      <c r="B35" t="s">
-        <v>591</v>
-      </c>
-      <c r="C35" t="s">
-        <v>589</v>
-      </c>
-      <c r="D35" t="s">
-        <v>592</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>795</v>
-      </c>
-      <c r="B36" t="s">
-        <v>793</v>
-      </c>
-      <c r="C36" t="s">
-        <v>796</v>
-      </c>
-      <c r="D36" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" t="s">
-        <v>794</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{55A4852E-6220-430E-BF1D-3578526B01EB}"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -83348,14 +83989,300 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F855F9-93CD-48F4-9493-C47EB38FDCC0}">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F13" xr:uid="{F4F855F9-93CD-48F4-9493-C47EB38FDCC0}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A164356-87FB-44A8-B782-2DDA70AD5ABC}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -83393,7 +84320,7 @@
         <v>1284</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -83401,351 +84328,10 @@
         <v>1292</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1475</v>
+        <v>1463</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315A4814-890A-4769-89C6-39B531C31142}">
-  <sheetPr>
-    <tabColor rgb="FF002060"/>
-  </sheetPr>
-  <dimension ref="A1:C29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>1994</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1997</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>1998</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1999</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2001</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>2002</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>2003</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>2010</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>2013</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>2014</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>2015</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>2016</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>2017</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>2018</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>2019</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>2020</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>2021</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>2022</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21">
-        <v>2022</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22">
-        <v>2021</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>2020</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>2019</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>2018</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>2017</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>2016</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>2015</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1916</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{315A4814-890A-4769-89C6-39B531C31142}"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>